--- a/OOP7_Curve_Fit_OPTIM/kMC Rate Constant_Analysis.xlsx
+++ b/OOP7_Curve_Fit_OPTIM/kMC Rate Constant_Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klkusima/Desktop/RASH_Research/CO_ox/Kinetics/OOP_Kinetics/MiKi/OOP7_Curve_Fit_OPTIM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10D8F50-B403-454D-BFD4-B2992DAB8CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62861F8A-C3EF-D740-91CA-D58B8E77E4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33140" yWindow="-120" windowWidth="38400" windowHeight="19540" activeTab="1" xr2:uid="{E1A8F411-447B-E24B-9094-95224F640229}"/>
+    <workbookView xWindow="-38400" yWindow="-120" windowWidth="38400" windowHeight="19540" activeTab="1" xr2:uid="{E1A8F411-447B-E24B-9094-95224F640229}"/>
   </bookViews>
   <sheets>
     <sheet name="CO_ADSORPTIONISOTHERM" sheetId="1" r:id="rId1"/>
@@ -260,8 +260,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="m/d;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d;@"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -401,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -489,35 +490,8 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -526,52 +500,79 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -580,12 +581,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -921,7 +916,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="32" t="s">
         <v>54</v>
       </c>
     </row>
@@ -946,20 +941,20 @@
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="36"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1049,7 +1044,7 @@
         <v>8.9897000000000005E-2</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" ref="E6:E11" si="3">C7/B7</f>
+        <f t="shared" ref="E7:E11" si="3">C7/B7</f>
         <v>1</v>
       </c>
       <c r="F7" s="8">
@@ -1234,7 +1229,7 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="32" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1532,7 +1527,7 @@
   <dimension ref="A2:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K56" sqref="A32:K56"/>
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1550,7 +1545,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="32" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1567,20 +1562,20 @@
       <c r="B5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="37" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -2546,91 +2541,91 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="53">
+      <c r="B32" s="13">
         <v>1E-4</v>
       </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="55"/>
-      <c r="B33" s="56" t="s">
+      <c r="A33" s="43"/>
+      <c r="B33" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="58"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="60" t="s">
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="60" t="s">
+      <c r="D34" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="61" t="s">
+      <c r="E34" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="61" t="s">
+      <c r="F34" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="62" t="s">
+      <c r="G34" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="H34" s="62" t="s">
+      <c r="H34" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I34" s="60" t="s">
+      <c r="I34" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="J34" s="61" t="s">
+      <c r="J34" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="K34" s="62" t="s">
+      <c r="K34" s="50" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="58">
-        <v>1</v>
-      </c>
-      <c r="B35" s="59" t="s">
+      <c r="A35" s="46">
+        <v>1</v>
+      </c>
+      <c r="B35" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="63">
+      <c r="C35" s="4">
         <v>8.3028000000000005E-2</v>
       </c>
-      <c r="D35" s="63">
+      <c r="D35" s="4">
         <v>8.3028000000000005E-2</v>
       </c>
-      <c r="E35" s="64">
+      <c r="E35" s="6">
         <v>8.3028000000000005E-2</v>
       </c>
-      <c r="F35" s="64">
+      <c r="F35" s="6">
         <v>8.3028000000000005E-2</v>
       </c>
-      <c r="G35" s="65">
+      <c r="G35" s="7">
         <v>8.3028000000000005E-2</v>
       </c>
-      <c r="H35" s="65">
+      <c r="H35" s="7">
         <v>8.3028000000000005E-2</v>
       </c>
       <c r="I35" s="63">
@@ -2647,28 +2642,28 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="58">
+      <c r="A36" s="46">
         <v>2</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="63">
+      <c r="C36" s="4">
         <v>7.4708999999999998E-2</v>
       </c>
-      <c r="D36" s="63">
+      <c r="D36" s="4">
         <v>7.4708999999999998E-2</v>
       </c>
-      <c r="E36" s="64">
+      <c r="E36" s="6">
         <v>7.4708999999999998E-2</v>
       </c>
-      <c r="F36" s="64">
+      <c r="F36" s="6">
         <v>7.4708999999999998E-2</v>
       </c>
-      <c r="G36" s="65">
+      <c r="G36" s="7">
         <v>7.4708999999999998E-2</v>
       </c>
-      <c r="H36" s="65">
+      <c r="H36" s="7">
         <v>7.4708999999999998E-2</v>
       </c>
       <c r="I36" s="63">
@@ -2685,28 +2680,28 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="58">
+      <c r="A37" s="46">
         <v>3</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="63">
+      <c r="C37" s="4">
         <v>8.3028000000000005E-2</v>
       </c>
-      <c r="D37" s="63">
+      <c r="D37" s="4">
         <v>8.3028000000000005E-2</v>
       </c>
-      <c r="E37" s="64">
+      <c r="E37" s="6">
         <v>8.3028000000000005E-2</v>
       </c>
-      <c r="F37" s="64">
+      <c r="F37" s="6">
         <v>8.3028000000000005E-2</v>
       </c>
-      <c r="G37" s="65">
+      <c r="G37" s="7">
         <v>8.3028000000000005E-2</v>
       </c>
-      <c r="H37" s="65">
+      <c r="H37" s="7">
         <v>8.3028000000000005E-2</v>
       </c>
       <c r="I37" s="63">
@@ -2723,28 +2718,28 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="58">
+      <c r="A38" s="46">
         <v>4</v>
       </c>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="63">
+      <c r="C38" s="4">
         <v>3.6910999999999999E-2</v>
       </c>
-      <c r="D38" s="63">
+      <c r="D38" s="4">
         <v>3.6910999999999999E-2</v>
       </c>
-      <c r="E38" s="64">
+      <c r="E38" s="6">
         <v>3.6910999999999999E-2</v>
       </c>
-      <c r="F38" s="64">
+      <c r="F38" s="6">
         <v>3.6910999999999999E-2</v>
       </c>
-      <c r="G38" s="65">
+      <c r="G38" s="7">
         <v>3.6910999999999999E-2</v>
       </c>
-      <c r="H38" s="65">
+      <c r="H38" s="7">
         <v>3.6910999999999999E-2</v>
       </c>
       <c r="I38" s="63">
@@ -2761,28 +2756,28 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="58">
+      <c r="A39" s="46">
         <v>5</v>
       </c>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="63">
+      <c r="C39" s="4">
         <v>3810400</v>
       </c>
-      <c r="D39" s="63">
+      <c r="D39" s="4">
         <v>3810400</v>
       </c>
-      <c r="E39" s="64">
+      <c r="E39" s="6">
         <v>3810400</v>
       </c>
-      <c r="F39" s="64">
+      <c r="F39" s="6">
         <v>3810400</v>
       </c>
-      <c r="G39" s="65">
+      <c r="G39" s="7">
         <v>3810400</v>
       </c>
-      <c r="H39" s="65">
+      <c r="H39" s="7">
         <v>3810400</v>
       </c>
       <c r="I39" s="63">
@@ -2799,28 +2794,28 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="58">
+      <c r="A40" s="46">
         <v>6</v>
       </c>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="63">
+      <c r="C40" s="4">
         <v>246420000</v>
       </c>
-      <c r="D40" s="63">
+      <c r="D40" s="4">
         <v>246420000</v>
       </c>
-      <c r="E40" s="64">
+      <c r="E40" s="6">
         <v>246420000</v>
       </c>
-      <c r="F40" s="64">
+      <c r="F40" s="6">
         <v>246420000</v>
       </c>
-      <c r="G40" s="65">
+      <c r="G40" s="7">
         <v>246420000</v>
       </c>
-      <c r="H40" s="65">
+      <c r="H40" s="7">
         <v>246420000</v>
       </c>
       <c r="I40" s="63">
@@ -2837,28 +2832,28 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="58">
+      <c r="A41" s="46">
         <v>7</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="63">
+      <c r="C41" s="4">
         <v>4308600000</v>
       </c>
-      <c r="D41" s="63">
+      <c r="D41" s="4">
         <v>4308600000</v>
       </c>
-      <c r="E41" s="64">
+      <c r="E41" s="6">
         <v>4308600000</v>
       </c>
-      <c r="F41" s="64">
+      <c r="F41" s="6">
         <v>4308600000</v>
       </c>
-      <c r="G41" s="65">
+      <c r="G41" s="7">
         <v>4308600000</v>
       </c>
-      <c r="H41" s="65">
+      <c r="H41" s="7">
         <v>4308600000</v>
       </c>
       <c r="I41" s="63">
@@ -2875,28 +2870,28 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="58">
+      <c r="A42" s="46">
         <v>8</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="63">
+      <c r="C42" s="4">
         <v>2128400000</v>
       </c>
-      <c r="D42" s="63">
+      <c r="D42" s="4">
         <v>2128400000</v>
       </c>
-      <c r="E42" s="64">
+      <c r="E42" s="6">
         <v>2128400000</v>
       </c>
-      <c r="F42" s="64">
+      <c r="F42" s="6">
         <v>2128400000</v>
       </c>
-      <c r="G42" s="65">
+      <c r="G42" s="7">
         <v>2128400000</v>
       </c>
-      <c r="H42" s="65">
+      <c r="H42" s="7">
         <v>2128400000</v>
       </c>
       <c r="I42" s="63">
@@ -2913,28 +2908,28 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="58">
+      <c r="A43" s="46">
         <v>9</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="63">
+      <c r="C43" s="4">
         <v>0.93500000000000005</v>
       </c>
-      <c r="D43" s="63">
+      <c r="D43" s="4">
         <v>0.93500000000000005</v>
       </c>
-      <c r="E43" s="64">
+      <c r="E43" s="6">
         <v>0.93500000000000005</v>
       </c>
-      <c r="F43" s="64">
+      <c r="F43" s="6">
         <v>0.93500000000000005</v>
       </c>
-      <c r="G43" s="65">
+      <c r="G43" s="7">
         <v>0.93500000000000005</v>
       </c>
-      <c r="H43" s="65">
+      <c r="H43" s="7">
         <v>0.93500000000000005</v>
       </c>
       <c r="I43" s="63">
@@ -2951,28 +2946,28 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="58">
+      <c r="A44" s="46">
         <v>10</v>
       </c>
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="63">
+      <c r="C44" s="4">
         <v>0</v>
       </c>
-      <c r="D44" s="63">
+      <c r="D44" s="4">
         <v>0</v>
       </c>
-      <c r="E44" s="64">
+      <c r="E44" s="6">
         <v>0</v>
       </c>
-      <c r="F44" s="64">
+      <c r="F44" s="6">
         <v>0</v>
       </c>
-      <c r="G44" s="65">
+      <c r="G44" s="7">
         <v>0</v>
       </c>
-      <c r="H44" s="65">
+      <c r="H44" s="7">
         <v>0</v>
       </c>
       <c r="I44" s="63" t="e">
@@ -2989,28 +2984,28 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="58">
+      <c r="A45" s="46">
         <v>11</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="63">
+      <c r="C45" s="4">
         <v>1.3454999999999999</v>
       </c>
-      <c r="D45" s="63">
+      <c r="D45" s="4">
         <v>1.3454999999999999</v>
       </c>
-      <c r="E45" s="64">
+      <c r="E45" s="6">
         <v>1.3454999999999999</v>
       </c>
-      <c r="F45" s="64">
+      <c r="F45" s="6">
         <v>1.3454999999999999</v>
       </c>
-      <c r="G45" s="65">
+      <c r="G45" s="7">
         <v>1.3454999999999999</v>
       </c>
-      <c r="H45" s="65">
+      <c r="H45" s="7">
         <v>1.3454999999999999</v>
       </c>
       <c r="I45" s="63">
@@ -3027,28 +3022,28 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="58">
+      <c r="A46" s="46">
         <v>12</v>
       </c>
-      <c r="B46" s="59" t="s">
+      <c r="B46" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="63">
+      <c r="C46" s="4">
         <v>0</v>
       </c>
-      <c r="D46" s="63">
+      <c r="D46" s="4">
         <v>0</v>
       </c>
-      <c r="E46" s="64">
+      <c r="E46" s="6">
         <v>0</v>
       </c>
-      <c r="F46" s="64">
+      <c r="F46" s="6">
         <v>0</v>
       </c>
-      <c r="G46" s="65">
+      <c r="G46" s="7">
         <v>0</v>
       </c>
-      <c r="H46" s="65">
+      <c r="H46" s="7">
         <v>0</v>
       </c>
       <c r="I46" s="63" t="e">
@@ -3065,28 +3060,28 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="58">
+      <c r="A47" s="46">
         <v>13</v>
       </c>
-      <c r="B47" s="59" t="s">
+      <c r="B47" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="63">
+      <c r="C47" s="4">
         <v>776.81</v>
       </c>
-      <c r="D47" s="63">
+      <c r="D47" s="4">
         <v>776.81</v>
       </c>
-      <c r="E47" s="64">
+      <c r="E47" s="6">
         <v>776.81</v>
       </c>
-      <c r="F47" s="64">
+      <c r="F47" s="6">
         <v>776.81</v>
       </c>
-      <c r="G47" s="65">
+      <c r="G47" s="7">
         <v>776.81</v>
       </c>
-      <c r="H47" s="65">
+      <c r="H47" s="7">
         <v>776.81</v>
       </c>
       <c r="I47" s="63">
@@ -3103,28 +3098,28 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="66">
+      <c r="A48" s="51">
         <v>14</v>
       </c>
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="63">
+      <c r="C48" s="4">
         <v>135280000</v>
       </c>
-      <c r="D48" s="63">
+      <c r="D48" s="4">
         <v>34885</v>
       </c>
-      <c r="E48" s="64">
+      <c r="E48" s="6">
         <v>135280000</v>
       </c>
-      <c r="F48" s="64">
+      <c r="F48" s="6">
         <v>34885</v>
       </c>
-      <c r="G48" s="65">
+      <c r="G48" s="7">
         <v>135280000</v>
       </c>
-      <c r="H48" s="65">
+      <c r="H48" s="7">
         <v>34885</v>
       </c>
       <c r="I48" s="63">
@@ -3145,28 +3140,28 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="58">
+      <c r="A49" s="46">
         <v>15</v>
       </c>
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="63">
+      <c r="C49" s="4">
         <v>776.81</v>
       </c>
-      <c r="D49" s="63">
+      <c r="D49" s="4">
         <v>776.81</v>
       </c>
-      <c r="E49" s="64">
+      <c r="E49" s="6">
         <v>776.81</v>
       </c>
-      <c r="F49" s="64">
+      <c r="F49" s="6">
         <v>776.81</v>
       </c>
-      <c r="G49" s="65">
+      <c r="G49" s="7">
         <v>776.81</v>
       </c>
-      <c r="H49" s="65">
+      <c r="H49" s="7">
         <v>776.81</v>
       </c>
       <c r="I49" s="63">
@@ -3183,28 +3178,28 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="66">
+      <c r="A50" s="51">
         <v>16</v>
       </c>
-      <c r="B50" s="67" t="s">
+      <c r="B50" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="63">
+      <c r="C50" s="4">
         <v>8957800000</v>
       </c>
-      <c r="D50" s="63">
+      <c r="D50" s="4">
         <v>2047300</v>
       </c>
-      <c r="E50" s="64">
+      <c r="E50" s="6">
         <v>8957800000</v>
       </c>
-      <c r="F50" s="64">
+      <c r="F50" s="6">
         <v>2047300</v>
       </c>
-      <c r="G50" s="65">
+      <c r="G50" s="7">
         <v>8957800000</v>
       </c>
-      <c r="H50" s="65">
+      <c r="H50" s="7">
         <v>2047300</v>
       </c>
       <c r="I50" s="63">
@@ -3221,28 +3216,28 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="58">
+      <c r="A51" s="46">
         <v>17</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="63">
+      <c r="C51" s="4">
         <v>130410000000</v>
       </c>
-      <c r="D51" s="63">
+      <c r="D51" s="4">
         <v>130410000000</v>
       </c>
-      <c r="E51" s="64">
+      <c r="E51" s="6">
         <v>130410000000</v>
       </c>
-      <c r="F51" s="64">
+      <c r="F51" s="6">
         <v>130410000000</v>
       </c>
-      <c r="G51" s="65">
+      <c r="G51" s="7">
         <v>130410000000</v>
       </c>
-      <c r="H51" s="65">
+      <c r="H51" s="7">
         <v>130410000000</v>
       </c>
       <c r="I51" s="63">
@@ -3259,28 +3254,28 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="58">
+      <c r="A52" s="46">
         <v>18</v>
       </c>
-      <c r="B52" s="59" t="s">
+      <c r="B52" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="63">
+      <c r="C52" s="4">
         <v>2301300000</v>
       </c>
-      <c r="D52" s="63">
+      <c r="D52" s="4">
         <v>2596600000</v>
       </c>
-      <c r="E52" s="64">
+      <c r="E52" s="6">
         <v>2301300000</v>
       </c>
-      <c r="F52" s="64">
+      <c r="F52" s="6">
         <v>2596600000</v>
       </c>
-      <c r="G52" s="65">
+      <c r="G52" s="7">
         <v>2301300000</v>
       </c>
-      <c r="H52" s="65">
+      <c r="H52" s="7">
         <v>2596600000</v>
       </c>
       <c r="I52" s="63">
@@ -3297,28 +3292,28 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="58">
+      <c r="A53" s="46">
         <v>19</v>
       </c>
-      <c r="B53" s="59" t="s">
+      <c r="B53" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="63">
+      <c r="C53" s="4">
         <v>5298.8</v>
       </c>
-      <c r="D53" s="63">
+      <c r="D53" s="4">
         <v>5298.8</v>
       </c>
-      <c r="E53" s="64">
+      <c r="E53" s="6">
         <v>5298.8</v>
       </c>
-      <c r="F53" s="64">
+      <c r="F53" s="6">
         <v>5298.8</v>
       </c>
-      <c r="G53" s="65">
+      <c r="G53" s="7">
         <v>5298.8</v>
       </c>
-      <c r="H53" s="65">
+      <c r="H53" s="7">
         <v>5298.8</v>
       </c>
       <c r="I53" s="63">
@@ -3335,28 +3330,28 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="66">
+      <c r="A54" s="51">
         <v>20</v>
       </c>
-      <c r="B54" s="67" t="s">
+      <c r="B54" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="63">
+      <c r="C54" s="4">
         <v>9.2232000000000005E-11</v>
       </c>
-      <c r="D54" s="63">
+      <c r="D54" s="4">
         <v>3.5767E-7</v>
       </c>
-      <c r="E54" s="64">
+      <c r="E54" s="6">
         <v>9.2232000000000005E-11</v>
       </c>
-      <c r="F54" s="64">
+      <c r="F54" s="6">
         <v>3.5767E-7</v>
       </c>
-      <c r="G54" s="65">
+      <c r="G54" s="7">
         <v>9.2232000000000005E-11</v>
       </c>
-      <c r="H54" s="65">
+      <c r="H54" s="7">
         <v>3.5767E-7</v>
       </c>
       <c r="I54" s="63">
@@ -3373,28 +3368,28 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="58">
+      <c r="A55" s="46">
         <v>21</v>
       </c>
-      <c r="B55" s="59" t="s">
+      <c r="B55" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="63">
+      <c r="C55" s="4">
         <v>266710</v>
       </c>
-      <c r="D55" s="63">
+      <c r="D55" s="4">
         <v>266710</v>
       </c>
-      <c r="E55" s="64">
+      <c r="E55" s="6">
         <v>266710</v>
       </c>
-      <c r="F55" s="64">
+      <c r="F55" s="6">
         <v>266710</v>
       </c>
-      <c r="G55" s="65">
+      <c r="G55" s="7">
         <v>266710</v>
       </c>
-      <c r="H55" s="65">
+      <c r="H55" s="7">
         <v>266710</v>
       </c>
       <c r="I55" s="63">
@@ -3411,28 +3406,28 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="66">
+      <c r="A56" s="51">
         <v>22</v>
       </c>
-      <c r="B56" s="67" t="s">
+      <c r="B56" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="63">
+      <c r="C56" s="4">
         <v>1.6763999999999999E-14</v>
       </c>
-      <c r="D56" s="63">
+      <c r="D56" s="4">
         <v>7.3349000000000002E-11</v>
       </c>
-      <c r="E56" s="64">
+      <c r="E56" s="6">
         <v>1.6763999999999999E-14</v>
       </c>
-      <c r="F56" s="64">
+      <c r="F56" s="6">
         <v>7.3349000000000002E-11</v>
       </c>
-      <c r="G56" s="65">
+      <c r="G56" s="7">
         <v>1.6763999999999999E-14</v>
       </c>
-      <c r="H56" s="65">
+      <c r="H56" s="7">
         <v>7.3349000000000002E-11</v>
       </c>
       <c r="I56" s="63">
@@ -3444,7 +3439,7 @@
         <v>4375.3877356239564</v>
       </c>
       <c r="K56" s="65">
-        <f t="shared" si="7"/>
+        <f>H56/G56</f>
         <v>4375.3877356239564</v>
       </c>
     </row>
@@ -3492,16 +3487,16 @@
       <c r="B5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="44" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="50" t="s">
+      <c r="G5" s="62"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="39" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3514,13 +3509,13 @@
       <c r="D6" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="37" t="s">
         <v>59</v>
       </c>
       <c r="H6" s="2"/>
@@ -3528,10 +3523,10 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="42">
-        <v>1</v>
-      </c>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="33">
+        <v>1</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="4">
@@ -3542,22 +3537,22 @@
         <v>830.28</v>
       </c>
       <c r="E7" s="25"/>
-      <c r="F7" s="47">
+      <c r="F7" s="36">
         <f>(C7+C9)/2</f>
         <v>8.3028000000000005E-2</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="38">
         <f>(D7+D9)/2</f>
         <v>830.28</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="40">
         <f>G7</f>
         <v>830.28</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="40">
         <f>G7</f>
         <v>830.28</v>
       </c>
@@ -3576,25 +3571,25 @@
         <v>7.4708999999999998E-2</v>
       </c>
       <c r="E8" s="25"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="42" t="s">
+      <c r="F8" s="35"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="51">
+      <c r="I8" s="40">
         <f>(C8+C10)/2</f>
         <v>5.5809999999999998E-2</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="40">
         <f>(D8+D10)/2</f>
         <v>5.5809999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="42">
+      <c r="A9" s="33">
         <v>3</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="4">
@@ -3605,8 +3600,8 @@
         <v>830.28</v>
       </c>
       <c r="E9" s="25"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="48"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="37"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -3624,13 +3619,13 @@
       <c r="D10" s="6">
         <v>3.6910999999999999E-2</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="37" t="s">
         <v>58</v>
       </c>
       <c r="H10" s="2"/>
@@ -3651,22 +3646,22 @@
         <v>3810400</v>
       </c>
       <c r="E11" s="25"/>
-      <c r="F11" s="47">
+      <c r="F11" s="36">
         <f>(C19+C21)/2</f>
         <v>776.81</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="38">
         <f>(D19+D21)/2</f>
         <v>7768099.9999999991</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="51">
+      <c r="I11" s="40">
         <f>G11</f>
         <v>7768099.9999999991</v>
       </c>
-      <c r="J11" s="51">
+      <c r="J11" s="40">
         <f>G11</f>
         <v>7768099.9999999991</v>
       </c>
@@ -3684,14 +3679,14 @@
       <c r="D12" s="6">
         <v>246420000</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="40">
         <f>(C20+C22)/2</f>
         <v>4546540000</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="40">
         <f>(D20+D22)/2</f>
         <v>4546540000</v>
       </c>
@@ -3726,14 +3721,14 @@
       <c r="D14" s="6">
         <v>2128400000</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="40">
         <f>(C25+C27)/2</f>
         <v>136004.4</v>
       </c>
-      <c r="J14" s="51">
+      <c r="J14" s="40">
         <f>(D25++D27)/2</f>
         <v>136004.4</v>
       </c>
@@ -3751,18 +3746,18 @@
       <c r="D15" s="6">
         <v>0.93500000000000005</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="40">
         <f>(C26+C28)/2</f>
         <v>4.6124382000000001E-11</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="40">
         <f>(D54+D56)/2</f>
         <v>1.788716745E-7</v>
       </c>
-      <c r="K15" s="41" t="s">
+      <c r="K15" s="32" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3796,14 +3791,14 @@
       <c r="D17" s="6">
         <v>1.3454999999999999</v>
       </c>
-      <c r="H17" s="42" t="s">
+      <c r="H17" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="51">
+      <c r="I17" s="40">
         <f>(C15+C17)/2</f>
         <v>1.14025</v>
       </c>
-      <c r="J17" s="51">
+      <c r="J17" s="40">
         <f>(D15+D17)/2</f>
         <v>1.14025</v>
       </c>
@@ -3821,23 +3816,23 @@
       <c r="D18" s="6">
         <v>0</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="H18" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="51">
+      <c r="I18" s="40">
         <f>(C16+C18)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="40">
         <f>(D16+D18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="42">
+      <c r="A19" s="33">
         <v>13</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="34" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="4">
@@ -3863,10 +3858,10 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="42">
+      <c r="A21" s="33">
         <v>15</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="4">
